--- a/public/download/actualisation/WAT-donnees-branches-2018_actualisation-2021.xlsx
+++ b/public/download/actualisation/WAT-donnees-branches-2018_actualisation-2021.xlsx
@@ -3516,9 +3516,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B9F9EC1-9A4C-4DAC-A9D2-1514AE956F1C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F83F18DC-6425-4365-A6EB-5720D8358D81}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{357C2941-2269-4A4D-B9E1-A011B4CAA10A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BE0428F-B824-4FCA-9992-35F50E17A311}"/>
 </file>